--- a/Logistic Regression Parameter Chart.xlsx
+++ b/Logistic Regression Parameter Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeLL\Desktop\Data Multiverse Hub\Excel Sheet  Module Almabetter\Excel Sheet Module By Himanshu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeLL\Desktop\Data Multiverse Hub\Excel Sheet  Module Almabetter\Excel Sheet Module By Himanshu\Paremeter Tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37981194-2E1A-43A1-9FB1-855011174B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC7B5B-574E-41FC-A5CD-CC762447CA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEC2CB17-4242-4631-AC78-0ED65CD51F0F}"/>
   </bookViews>
@@ -79,26 +79,6 @@
   </si>
   <si>
     <t>SOLVER</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">solver{‘newton-cg’, ‘lbfgs’, ‘liblinear’, ‘sag’, ‘saga’}, default=’lbfgs’
-Algorithm to use in the optimization problem. Default is ‘lbfgs’. To choose a solver, you might want to consider the following aspects:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>For small datasets, ‘liblinear’ is a good choice, whereas ‘sag’ and ‘saga’ are faster for large ones;
-For multiclass problems, only ‘newton-cg’, ‘sag’, ‘saga’ and ‘lbfgs’ handle multinomial loss;
-‘liblinear’ is limited to one-versus-rest schemes.</t>
-    </r>
   </si>
   <si>
     <t>MULTI CLASS</t>
@@ -151,6 +131,26 @@
   </si>
   <si>
     <t>LOGISTIC REGRESSION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">solver{‘newton-cg’, ‘lbfgs’, ‘liblinear’, ‘sag’, ‘saga’}, default=’lbfgs’   ( SAG -Means Schostic Average Gradient Descent) .                                  
+Algorithm to use in the optimization problem. Default is ‘lbfgs’. To choose a solver, you might want to consider the following aspects:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For small datasets, ‘liblinear’ is a good choice, whereas ‘sag’ and ‘saga’ are faster for large ones;
+For multiclass problems, only ‘newton-cg’, ‘sag’, ‘saga’ and ‘lbfgs’ handle multinomial loss;
+‘liblinear’ is limited to one-versus-rest schemes.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -448,132 +448,132 @@
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ACC330-56D8-4F3A-A4A4-A976A4069D67}">
   <dimension ref="D1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L3"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,579 +903,581 @@
   <sheetData>
     <row r="1" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D6" s="37"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D7" s="37"/>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D8" s="37"/>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="37"/>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="38"/>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="4:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="46">
+        <v>2</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D12" s="44"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D13" s="44"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="1"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D15" s="2"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="1"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="46"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="47"/>
-    </row>
-    <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D18" s="27"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" s="27"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D20" s="27"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D21" s="27"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D22" s="27"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" s="27"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D24" s="27"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="27"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" s="27"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" s="27"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" s="27"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D29" s="27"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D30" s="27"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D31" s="27"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D32" s="27"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D33" s="27"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D34" s="27"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="4:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="13">
         <v>4</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-      <c r="E7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="2"/>
-      <c r="E8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
-      <c r="E9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="3"/>
-      <c r="E10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="4:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D12" s="5"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="5"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D15" s="7"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="6"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="33">
-        <v>3</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18" s="19"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19" s="19"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20" s="19"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D21" s="19"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D22" s="19"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="19"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D24" s="19"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="19"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D26" s="19"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D27" s="19"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" s="19"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D29" s="19"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D30" s="19"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D31" s="19"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D32" s="19"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="19"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="19"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="4:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="20" t="s">
+      <c r="F35" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="36">
-        <v>4</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="26"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" s="20"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="26"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" s="20"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="26"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D38" s="20"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="26"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D39" s="20"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="26"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" s="20"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="26"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D41" s="20"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="26"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D42" s="20"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="26"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D43" s="23"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="26"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D44" s="23"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="26"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D45" s="23"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="26"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D46" s="23"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="26"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D47" s="23"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="26"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D48" s="23"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="26"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="24"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="28"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F11:J16"/>
+    <mergeCell ref="E11:E16"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E17:E34"/>
     <mergeCell ref="E35:E49"/>
@@ -1492,8 +1494,6 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="F7:K10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F11:J16"/>
-    <mergeCell ref="E11:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
